--- a/StructureDefinition-lmdi-condition.xlsx
+++ b/StructureDefinition-lmdi-condition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/StructureDefinition-lmdi-condition.xlsx
+++ b/StructureDefinition-lmdi-condition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.0.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/StructureDefinition-lmdi-condition.xlsx
+++ b/StructureDefinition-lmdi-condition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.2</t>
+    <t>1.0.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/StructureDefinition-lmdi-condition.xlsx
+++ b/StructureDefinition-lmdi-condition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.3</t>
+    <t>1.0.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -1774,17 +1774,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.21875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.88671875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.48046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="63.55078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="54.484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1793,28 +1793,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="85.23828125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.7109375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.47265625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="68.20703125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="222.1015625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="58.4765625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="190.4140625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-lmdi-condition.xlsx
+++ b/StructureDefinition-lmdi-condition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.4</t>
+    <t>1.0.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-10</t>
+    <t>2025-09-12</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -373,7 +373,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -598,7 +598,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-category</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-category|4.0.1</t>
   </si>
   <si>
     <t>&lt; 404684003 |Clinical finding|</t>
@@ -625,7 +625,7 @@
     <t>Coding of the severity with a terminology is preferred, where possible.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-severity</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-severity|4.0.1</t>
   </si>
   <si>
     <t>&lt; 272141005 |Severities|</t>
@@ -665,7 +665,7 @@
     <t>Identification of the condition or diagnosis.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-code|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1084,7 +1084,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 442083009  |Anatomical or acquired body structure|</t>
@@ -1131,7 +1131,7 @@
     <t>Condition.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1231,7 +1231,7 @@
     <t>Condition.recorder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1320,7 +1320,7 @@
     <t>Codes describing condition stages (e.g. Cancer stages).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-stage</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-stage|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">con-1
@@ -1333,7 +1333,7 @@
     <t>Condition.stage.assessment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ClinicalImpression|DiagnosticReport|Observation)
+    <t xml:space="preserve">Reference(ClinicalImpression|4.0.1|DiagnosticReport|4.0.1|Observation|4.0.1)
 </t>
   </si>
   <si>
@@ -1358,7 +1358,7 @@
     <t>Codes describing the kind of condition staging (e.g. clinical or pathological).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-stage-type</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-stage-type|4.0.1</t>
   </si>
   <si>
     <t>./inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="stage type"]</t>
@@ -1404,7 +1404,7 @@
     <t>Codes that describe the manifestation or symptoms of a condition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/manifestation-or-symptom</t>
+    <t>http://hl7.org/fhir/ValueSet/manifestation-or-symptom|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">con-2
@@ -1423,7 +1423,7 @@
     <t>Condition.evidence.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1784,7 +1784,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="54.484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="68.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1799,7 +1799,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="73.078125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.47265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.00390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-lmdi-condition.xlsx
+++ b/StructureDefinition-lmdi-condition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.6</t>
+    <t>1.0.7</t>
   </si>
   <si>
     <t>Name</t>
